--- a/StarSeeker/operator/samples/tables.xlsx
+++ b/StarSeeker/operator/samples/tables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\home\yuta\work\StarSeeker\StarSeeker\operator\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30759ED-CD4A-4F60-8AD8-E78DB140A4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3575C580-C3E9-4BFC-927A-FF10020737A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="524" xr2:uid="{03898D4D-7442-4456-BE0F-5576AA6ABBF9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="70">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -275,10 +275,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>:J*4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>t_point_dataset</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -292,10 +288,6 @@
   </si>
   <si>
     <t>references t_surface_dataset(surface_dataset_id) not null</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>:K*3</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -315,6 +307,30 @@
   </si>
   <si>
     <t>varchar(32)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tenant_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>service_path</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar(550)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>:K*4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>:L*3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -679,9 +695,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DC58EF-0307-4C4C-AE96-1863076D1C32}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -706,7 +724,7 @@
         <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F1" t="s">
         <v>19</v>
@@ -726,10 +744,10 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -757,10 +775,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -774,13 +792,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
@@ -791,10 +809,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -803,117 +821,117 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s">
         <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
@@ -922,61 +940,58 @@
         <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="G17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.45">
@@ -984,16 +999,19 @@
         <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
       </c>
       <c r="F19" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="G19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.45">
@@ -1001,16 +1019,16 @@
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="G20" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.45">
@@ -1018,7 +1036,7 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
@@ -1027,7 +1045,7 @@
         <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.45">
@@ -1035,7 +1053,7 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
@@ -1044,7 +1062,7 @@
         <v>8</v>
       </c>
       <c r="G22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.45">
@@ -1052,166 +1070,166 @@
         <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="G25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>61</v>
       </c>
       <c r="F27" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G28" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
       </c>
       <c r="G29" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="F32" t="s">
         <v>5</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F33" t="s">
         <v>5</v>
@@ -1220,58 +1238,55 @@
         <v>30</v>
       </c>
     </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="F35" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="G35" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B37" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" t="s">
-        <v>5</v>
-      </c>
-      <c r="G37" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.45">
@@ -1279,16 +1294,19 @@
         <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D38" t="s">
-        <v>26</v>
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>61</v>
       </c>
       <c r="F38" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="G38" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.45">
@@ -1296,16 +1314,16 @@
         <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D39" t="s">
         <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="G39" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.45">
@@ -1313,16 +1331,67 @@
         <v>48</v>
       </c>
       <c r="C40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" t="s">
         <v>10</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D43" t="s">
         <v>9</v>
       </c>
-      <c r="F40" t="s">
-        <v>5</v>
-      </c>
-      <c r="G40" t="s">
-        <v>30</v>
+      <c r="F43" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
